--- a/results/results_5.xlsx
+++ b/results/results_5.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikolaj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\TinyGP\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2510D1C4-08CE-4F69-B195-28B65D55B4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9A3B65-047C-4AD6-BEA9-116ACB2524BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -355,7 +357,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +374,24 @@
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC1C1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -385,16 +405,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC1C1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -404,6 +432,2721 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6174969951186005E-2"/>
+          <c:y val="3.9241448124769526E-2"/>
+          <c:w val="0.92194045207897846"/>
+          <c:h val="0.91015232511304967"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>-3.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.0778217821782179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.0156435643564357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.9534653465346534</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.8912871287128712</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.829108910891089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.7669306930693067</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.7047524752475245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.6425742574257423</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.58039603960396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.5182178217821778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4560396039603956</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.3938613861386133</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.3316831683168311</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.2695049504950489</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.2073267326732666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.1451485148514844</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.0829702970297022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.0207920792079199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.9586138613861377</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.8964356435643555</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.8342574257425732</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.772079207920791</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.7099009900990088</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.6477227722772265</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.5855445544554443</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.5233663366336621</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.4611881188118798</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.3990099009900976</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.3368316831683154</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.2746534653465331</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.2124752475247509</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.1502970297029687</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.0881188118811864</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.0259405940594042</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.96376237623762195</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.90158415841583972</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.83940594059405749</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.77722772277227525</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.71504950495049302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.65287128712871079</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.59069306930692855</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.52851485148514632</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.46633663366336414</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.40415841584158196</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.34198019801979979</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.27980198019801761</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.21762376237623543</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.15544554455445325</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-9.3267326732671074E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.1089108910888896E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.1089108910893282E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.326732673267546E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.15544554455445764</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.21762376237623982</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.27980198019802199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.34198019801980417</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.40415841584158635</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.46633663366336853</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.52851485148515076</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.59069306930693299</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.65287128712871523</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.71504950495049746</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.77722772277227969</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.83940594059406193</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.90158415841584416</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.96376237623762639</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0259405940594086</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.0881188118811909</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.1502970297029731</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2124752475247553</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2746534653465376</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.3368316831683198</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.399009900990102</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4611881188118843</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5233663366336665</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5855445544554487</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.647722772277231</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7099009900990132</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7720792079207954</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8342574257425777</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.8964356435643599</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.9586138613861421</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.0207920792079244</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.0829702970297066</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1451485148514888</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.2073267326732711</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.2695049504950533</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.3316831683168355</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.3938613861386178</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.4560396039604</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.5182178217821822</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.5803960396039645</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.6425742574257467</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.7047524752475289</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.7669306930693112</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.8291089108910934</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.8912871287128756</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.9534653465346579</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$2:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>-2.9999971463869137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.995426356521445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.9821755444494524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.9602916509162425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.9298521868876479</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.8909649408097162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.8437675715446762</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.7884270885472286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.7251392212784245</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.6541276802798803</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.5756433127472405</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4899631558469868</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.3973893914133662</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.2982482060408564</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.1928885609507254</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.0816808763564971</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.9650156353811501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.8433019128873829</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.7169658348701342</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.5864489743265549</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.4522066897618526</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.3147064127088699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.1744258908341036</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.0318513933723454</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.88747588577560155</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.74179718057885258</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.59531607157510547</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.44853445845472639</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.30195346909897602</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.15607158672487048</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.1382789057938991E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.13162529333878825</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.27247319252694446</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.41069138549644335</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.5458220364905636</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.67742069268850946</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.80505792676315902</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9283209200383794</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0468149802011468</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.160164987777871</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.2680167658607675</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3700383678678261</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4659212784377056</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5553815228975192</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.638160681095675</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7140268017623113</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7827752139449997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.8442292324657923</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.8982407547557982</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9446907468437433</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.9834896167037348</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.014577473603079</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.0379242725318054</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.0535298432398115</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.0614238038535686</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.0616653594903673</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.0543429867324403</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.0395740052642273</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.0175040384118641</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9883063647530039</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9521811633856201</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9093546558549193</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.8600781481362914</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.8046269764578122</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7432993611167005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6764151727988861</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6043146162480961</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.5273568364493071</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.445918452789823</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.3603920269384489</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2711844704381998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.178715398239691</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0834154346099412</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.98572447803395802</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.88608993188347085</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.78496490775793015</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.68280640850688323</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.58007349801968722</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.47722546491791124</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.37471998730754313</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.27301130574215571</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.17254841151453171</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.3773257333030862E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-2.2881002649557503E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.11699173660245643</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.2081485158684695</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.29595474635853714</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.38002924414051165</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.46000774909131437</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.53554437072331973</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.60631296056028849</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.67200840572441323</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.73234783870296227</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.78707175858939482</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.83594505943842945</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.87875796173602727</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.91532684336222125</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.94549496681570078</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.96913309987255591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5686-4862-B893-FA6348D6AAFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>-3.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.0778217821782179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.0156435643564357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.9534653465346534</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.8912871287128712</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.829108910891089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.7669306930693067</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.7047524752475245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.6425742574257423</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.58039603960396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.5182178217821778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4560396039603956</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.3938613861386133</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.3316831683168311</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.2695049504950489</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.2073267326732666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.1451485148514844</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.0829702970297022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.0207920792079199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.9586138613861377</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.8964356435643555</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.8342574257425732</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.772079207920791</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.7099009900990088</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.6477227722772265</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.5855445544554443</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.5233663366336621</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.4611881188118798</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.3990099009900976</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.3368316831683154</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.2746534653465331</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.2124752475247509</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.1502970297029687</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.0881188118811864</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.0259405940594042</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.96376237623762195</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.90158415841583972</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.83940594059405749</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.77722772277227525</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.71504950495049302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.65287128712871079</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.59069306930692855</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.52851485148514632</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.46633663366336414</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.40415841584158196</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.34198019801979979</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.27980198019801761</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.21762376237623543</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.15544554455445325</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-9.3267326732671074E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.1089108910888896E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.1089108910893282E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.326732673267546E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.15544554455445764</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.21762376237623982</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.27980198019802199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.34198019801980417</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.40415841584158635</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.46633663366336853</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.52851485148515076</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.59069306930693299</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.65287128712871523</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.71504950495049746</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.77722772277227969</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.83940594059406193</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.90158415841584416</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.96376237623762639</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0259405940594086</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.0881188118811909</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.1502970297029731</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2124752475247553</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2746534653465376</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.3368316831683198</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.399009900990102</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4611881188118843</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5233663366336665</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5855445544554487</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.647722772277231</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7099009900990132</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7720792079207954</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8342574257425777</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.8964356435643599</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.9586138613861421</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.0207920792079244</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.0829702970297066</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1451485148514888</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.2073267326732711</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.2695049504950533</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.3316831683168355</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.3938613861386178</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.4560396039604</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.5182178217821822</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.5803960396039645</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.6425742574257467</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.7047524752475289</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.7669306930693112</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.8291089108910934</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.8912871287128756</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.9534653465346579</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$E$2:$E$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>-4.7130022019911531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.8585514777240526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0021863806002909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.1438503154061301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.2834874635312721</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.4210428049625738</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.5564621399631111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.6896921104280294</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.8206802209087725</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.9493748592974125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.0757253171629166</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.1996818097313477</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.3211954955021374</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.4402184954926653</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.5567039121036057</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-6.6706058475975833</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.7818794221838568</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.8904807917019113</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.9963671648969976</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7.0994968202807911</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7.1998291225705611</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.2973245387003214</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.3919446533977142</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.48365218432044</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7.5724109967462967</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.6581861178110318</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7.7409437502883938</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7.8206512859069637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-7.8972773181985039</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-7.9707916548727811</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8.0411653297139694</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-8.1083706139939569</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-8.1723810273980568</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-8.2331713484588178</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-8.2907176244938139</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-8.3449971810435208</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-8.3959886308055278</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-8.4436718820615901</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-8.4880281465942069</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-8.5290399470895668</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-8.5666911240239862</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-8.6009668420311041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-8.6318535957473408</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-8.6593392151332864</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-8.6834128702689668</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-8.7040650756210542</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-8.7212876937803827</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-8.7350739386682417</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-8.7454183782102515</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-8.7523169364767117</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-8.7557668952886001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-8.7557668952886001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-8.7523169364767117</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-8.7454183782102515</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-8.7350739386682417</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-8.7212876937803809</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-8.7040650756210542</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-8.6834128702689632</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-8.6593392151332829</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-8.631853595747339</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-8.6009668420311023</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-8.5666911240239827</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-8.529039947089565</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-8.4880281465942051</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-8.4436718820615866</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-8.3959886308055225</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-8.3449971810435173</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-8.2907176244938103</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-8.2331713484588143</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-8.1723810273980515</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-8.1083706139939515</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-8.041165329713964</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-7.9707916548727766</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-7.8972773181984985</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-7.8206512859069583</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-7.7409437502883884</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-7.6581861178110255</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-7.5724109967462905</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-7.4836521843204329</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-7.3919446533977071</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-7.2973245387003143</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-7.199829122570554</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-7.0994968202807849</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-6.9963671648969896</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-6.8904807917019042</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-6.7818794221838488</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-6.6706058475975762</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-6.5567039121035977</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-6.4402184954926565</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-6.3211954955021286</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-6.1996818097313389</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-6.0757253171629069</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-5.9493748592974036</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-5.8206802209087636</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-5.6896921104280196</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-5.5564621399631013</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-5.4210428049625641</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-5.2834874635312614</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-5.1438503154061213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5686-4862-B893-FA6348D6AAFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>-3.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.0778217821782179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.0156435643564357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.9534653465346534</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.8912871287128712</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.829108910891089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.7669306930693067</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.7047524752475245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.6425742574257423</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.58039603960396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.5182178217821778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4560396039603956</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.3938613861386133</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.3316831683168311</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.2695049504950489</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.2073267326732666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.1451485148514844</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.0829702970297022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.0207920792079199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.9586138613861377</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.8964356435643555</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.8342574257425732</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.772079207920791</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.7099009900990088</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.6477227722772265</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.5855445544554443</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.5233663366336621</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.4611881188118798</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.3990099009900976</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.3368316831683154</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.2746534653465331</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.2124752475247509</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.1502970297029687</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.0881188118811864</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.0259405940594042</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.96376237623762195</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.90158415841583972</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.83940594059405749</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.77722772277227525</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.71504950495049302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.65287128712871079</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.59069306930692855</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.52851485148514632</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.46633663366336414</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.40415841584158196</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.34198019801979979</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.27980198019801761</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.21762376237623543</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.15544554455445325</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-9.3267326732671074E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.1089108910888896E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.1089108910893282E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.326732673267546E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.15544554455445764</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.21762376237623982</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.27980198019802199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.34198019801980417</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.40415841584158635</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.46633663366336853</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.52851485148515076</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.59069306930693299</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.65287128712871523</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.71504950495049746</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.77722772277227969</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.83940594059406193</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.90158415841584416</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.96376237623762639</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0259405940594086</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.0881188118811909</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.1502970297029731</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2124752475247553</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2746534653465376</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.3368316831683198</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.399009900990102</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4611881188118843</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5233663366336665</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5855445544554487</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.647722772277231</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7099009900990132</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7720792079207954</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8342574257425777</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.8964356435643599</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.9586138613861421</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.0207920792079244</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.0829702970297066</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1451485148514888</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.2073267326732711</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.2695049504950533</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.3316831683168355</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.3938613861386178</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.4560396039604</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.5182178217821822</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.5803960396039645</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.6425742574257467</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.7047524752475289</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.7669306930693112</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.8291089108910934</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.8912871287128756</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.9534653465346579</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$S$2:$S$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>-2.8718059829975587E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3342780137647719E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23028139618187704</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52050706353356035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90728320428382159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3679650402597081</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8751728844395281</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3982952931509374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9052580029648665</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3644670938745489</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.746810400662274</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0275831844983712</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1881956163045881</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2175231728669855</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1127779441061296</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8798089716451609</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5327813353727051</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.093233459523554</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5885654343599076</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0500626871017995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5106036071892099</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0022318271647936</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55379007476150355</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.18881081419662743</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7.6160822382714585E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.23267224741348771</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.28080590908206915</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.22892500765204596</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-9.2748010394607963E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1061653763777005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.34238447388989957</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.58886366247787136</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.81928993630923141</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0103200776579582</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1435144879554071</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.2067996256216595</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1953302367596459</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1116735555465311</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.96529697928315517</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.77140417644363668</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.54922722920296907</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.31993872905367715</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.10439191448520847</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-7.9076706295182805E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.21654413172016376</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.29988117870623182</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.32744938933518136</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.30402065695344554</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.23991664070152288</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.14946393639824981</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-4.8955016700267279E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.5620006977257599E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.12076301706537546</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.16727062878043628</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.18138760381565139</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.16513738576147041</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.12577684869056149</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.4456731930803044E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.4295292933569433E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.1831697758519607E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.3434206328794289E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-4.1446988622710224E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.7223535086593521E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.12645520955108236</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.22456930680413731</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.32919435724781937</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.42644978086211</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.5030291211763005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.54816330974519534</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.55517766537197466</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.52243519576118702</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.45356401121430978</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.35697833305119558</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.24480182884288609</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.13137446006045433</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.156182222441313E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-4.0911823701399251E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-7.4913937783631965E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-6.2994374057740998E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-2.0336399434575099E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.10657317973256035</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.25716589180417176</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.44043148188045894</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.64428445819207847</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85491127029322023</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.0578781388988774</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2392139829652415</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.3863977252158999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.4891986520323939</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.5403369858498646</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5359475928070156</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4758418940486602</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.3635714554478446</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.2063018718501084</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.0145083017095111</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.8015054044309744</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.58282557078929065</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.37546119061409067</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.19699002573296434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5686-4862-B893-FA6348D6AAFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="848443184"/>
+        <c:axId val="848439440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="848443184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848439440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="848439440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848443184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>287655</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7559C5F9-74A8-4D08-90B1-465724637F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -705,11 +3448,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CX102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="5"/>
+    <col min="5" max="5" width="8.88671875" style="3"/>
+    <col min="19" max="19" width="8.88671875" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1017,11 +3767,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-3.14</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>-2.9999971463869137</v>
       </c>
       <c r="C2" t="e">
@@ -1032,7 +3782,7 @@
         <f t="shared" ref="D2:D33" ca="1" si="1">0.309292964647455+0.0539745918671713*_xludf.Csc(13.0389755004484*(3.26841046476068+A2))</f>
         <v>#NAME?</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <f t="shared" ref="E2:E33" si="2">-8.75619817200264*COS(0.319248393145526*A2)</f>
         <v>-4.7130022019911531</v>
       </c>
@@ -1088,7 +3838,7 @@
         <f t="shared" ref="R2:R33" si="15">2.37150805608629*(-0.65976403950173+A2)*COS(2.52514501186248*A2+0.666277386163338*SIN(0.0845115756212067-A2)*(-1.38203739377665-0.227617423336666*(-1.72726095701193+SIN(A2))))*SIN(A2)*SIN(4.50963498980504+A2)</f>
         <v>-2.8718059829975587E-4</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="4">
         <f t="shared" ref="S2:S33" si="16">2.37150805608629*(-0.65976403950173+A2)*COS(2.52514501186248*A2+0.666277386163338*SIN(0.0845115756212067-A2)*(-1.38203739377665-0.227617423336666*(-1.72726095701193+SIN(A2))))*SIN(A2)*SIN(4.50963498980504+A2)</f>
         <v>-2.8718059829975587E-4</v>
       </c>
@@ -1417,11 +4167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-3.0778217821782179</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>-2.995426356521445</v>
       </c>
       <c r="C3" t="e">
@@ -1432,7 +4182,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <f t="shared" si="2"/>
         <v>-4.8585514777240526</v>
       </c>
@@ -1488,7 +4238,7 @@
         <f t="shared" si="15"/>
         <v>5.3342780137647719E-2</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="4">
         <f t="shared" si="16"/>
         <v>5.3342780137647719E-2</v>
       </c>
@@ -1817,11 +4567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-3.0156435643564357</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>-2.9821755444494524</v>
       </c>
       <c r="C4" t="e">
@@ -1832,7 +4582,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <f t="shared" si="2"/>
         <v>-5.0021863806002909</v>
       </c>
@@ -1888,7 +4638,7 @@
         <f t="shared" si="15"/>
         <v>0.23028139618187704</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="4">
         <f t="shared" si="16"/>
         <v>0.23028139618187704</v>
       </c>
@@ -2217,11 +4967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-2.9534653465346534</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>-2.9602916509162425</v>
       </c>
       <c r="C5" t="e">
@@ -2232,7 +4982,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <f t="shared" si="2"/>
         <v>-5.1438503154061301</v>
       </c>
@@ -2288,7 +5038,7 @@
         <f t="shared" si="15"/>
         <v>0.52050706353356035</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="4">
         <f t="shared" si="16"/>
         <v>0.52050706353356035</v>
       </c>
@@ -2617,11 +5367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-2.8912871287128712</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>-2.9298521868876479</v>
       </c>
       <c r="C6" t="e">
@@ -2632,7 +5382,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <f t="shared" si="2"/>
         <v>-5.2834874635312721</v>
       </c>
@@ -2688,7 +5438,7 @@
         <f t="shared" si="15"/>
         <v>0.90728320428382159</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="4">
         <f t="shared" si="16"/>
         <v>0.90728320428382159</v>
       </c>
@@ -3017,11 +5767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-2.829108910891089</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>-2.8909649408097162</v>
       </c>
       <c r="C7" t="e">
@@ -3032,7 +5782,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <f t="shared" si="2"/>
         <v>-5.4210428049625738</v>
       </c>
@@ -3088,7 +5838,7 @@
         <f t="shared" si="15"/>
         <v>1.3679650402597081</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="4">
         <f t="shared" si="16"/>
         <v>1.3679650402597081</v>
       </c>
@@ -3417,11 +6167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-2.7669306930693067</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>-2.8437675715446762</v>
       </c>
       <c r="C8" t="e">
@@ -3432,7 +6182,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <f t="shared" si="2"/>
         <v>-5.5564621399631111</v>
       </c>
@@ -3488,7 +6238,7 @@
         <f t="shared" si="15"/>
         <v>1.8751728844395281</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="4">
         <f t="shared" si="16"/>
         <v>1.8751728844395281</v>
       </c>
@@ -3817,11 +6567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-2.7047524752475245</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>-2.7884270885472286</v>
       </c>
       <c r="C9" t="e">
@@ -3832,7 +6582,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <f t="shared" si="2"/>
         <v>-5.6896921104280294</v>
       </c>
@@ -3888,7 +6638,7 @@
         <f t="shared" si="15"/>
         <v>2.3982952931509374</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="4">
         <f t="shared" si="16"/>
         <v>2.3982952931509374</v>
       </c>
@@ -4217,11 +6967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-2.6425742574257423</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>-2.7251392212784245</v>
       </c>
       <c r="C10" t="e">
@@ -4232,7 +6982,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <f t="shared" si="2"/>
         <v>-5.8206802209087725</v>
       </c>
@@ -4288,7 +7038,7 @@
         <f t="shared" si="15"/>
         <v>2.9052580029648665</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="4">
         <f t="shared" si="16"/>
         <v>2.9052580029648665</v>
       </c>
@@ -4617,11 +7367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-2.58039603960396</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>-2.6541276802798803</v>
       </c>
       <c r="C11" t="e">
@@ -4632,7 +7382,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <f t="shared" si="2"/>
         <v>-5.9493748592974125</v>
       </c>
@@ -4688,7 +7438,7 @@
         <f t="shared" si="15"/>
         <v>3.3644670938745489</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="4">
         <f t="shared" si="16"/>
         <v>3.3644670938745489</v>
       </c>
@@ -5017,11 +7767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-2.5182178217821778</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>-2.5756433127472405</v>
       </c>
       <c r="C12" t="e">
@@ -5032,7 +7782,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <f t="shared" si="2"/>
         <v>-6.0757253171629166</v>
       </c>
@@ -5088,7 +7838,7 @@
         <f t="shared" si="15"/>
         <v>3.746810400662274</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="4">
         <f t="shared" si="16"/>
         <v>3.746810400662274</v>
       </c>
@@ -5417,11 +8167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-2.4560396039603956</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>-2.4899631558469868</v>
       </c>
       <c r="C13" t="e">
@@ -5432,7 +8182,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <f t="shared" si="2"/>
         <v>-6.1996818097313477</v>
       </c>
@@ -5488,7 +8238,7 @@
         <f t="shared" si="15"/>
         <v>4.0275831844983712</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="4">
         <f t="shared" si="16"/>
         <v>4.0275831844983712</v>
       </c>
@@ -5817,11 +8567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="14" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-2.3938613861386133</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>-2.3973893914133662</v>
       </c>
       <c r="C14" t="e">
@@ -5832,7 +8582,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <f t="shared" si="2"/>
         <v>-6.3211954955021374</v>
       </c>
@@ -5888,7 +8638,7 @@
         <f t="shared" si="15"/>
         <v>4.1881956163045881</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="4">
         <f t="shared" si="16"/>
         <v>4.1881956163045881</v>
       </c>
@@ -6217,11 +8967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-2.3316831683168311</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>-2.2982482060408564</v>
       </c>
       <c r="C15" t="e">
@@ -6232,7 +8982,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <f t="shared" si="2"/>
         <v>-6.4402184954926653</v>
       </c>
@@ -6288,7 +9038,7 @@
         <f t="shared" si="15"/>
         <v>4.2175231728669855</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="4">
         <f t="shared" si="16"/>
         <v>4.2175231728669855</v>
       </c>
@@ -6617,11 +9367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-2.2695049504950489</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>-2.1928885609507254</v>
       </c>
       <c r="C16" t="e">
@@ -6632,7 +9382,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <f t="shared" si="2"/>
         <v>-6.5567039121036057</v>
       </c>
@@ -6688,7 +9438,7 @@
         <f t="shared" si="15"/>
         <v>4.1127779441061296</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="4">
         <f t="shared" si="16"/>
         <v>4.1127779441061296</v>
       </c>
@@ -7017,11 +9767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-2.2073267326732666</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>-2.0816808763564971</v>
       </c>
       <c r="C17" t="e">
@@ -7032,7 +9782,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <f t="shared" si="2"/>
         <v>-6.6706058475975833</v>
       </c>
@@ -7088,7 +9838,7 @@
         <f t="shared" si="15"/>
         <v>3.8798089716451609</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="4">
         <f t="shared" si="16"/>
         <v>3.8798089716451609</v>
       </c>
@@ -7417,11 +10167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-2.1451485148514844</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>-1.9650156353811501</v>
       </c>
       <c r="C18" t="e">
@@ -7432,7 +10182,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <f t="shared" si="2"/>
         <v>-6.7818794221838568</v>
       </c>
@@ -7488,7 +10238,7 @@
         <f t="shared" si="15"/>
         <v>3.5327813353727051</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="4">
         <f t="shared" si="16"/>
         <v>3.5327813353727051</v>
       </c>
@@ -7817,11 +10567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-2.0829702970297022</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>-1.8433019128873829</v>
       </c>
       <c r="C19" t="e">
@@ -7832,7 +10582,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <f t="shared" si="2"/>
         <v>-6.8904807917019113</v>
       </c>
@@ -7888,7 +10638,7 @@
         <f t="shared" si="15"/>
         <v>3.093233459523554</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="4">
         <f t="shared" si="16"/>
         <v>3.093233459523554</v>
       </c>
@@ -8217,11 +10967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-2.0207920792079199</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>-1.7169658348701342</v>
       </c>
       <c r="C20" t="e">
@@ -8232,7 +10982,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <f t="shared" si="2"/>
         <v>-6.9963671648969976</v>
       </c>
@@ -8288,7 +11038,7 @@
         <f t="shared" si="15"/>
         <v>2.5885654343599076</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="4">
         <f t="shared" si="16"/>
         <v>2.5885654343599076</v>
       </c>
@@ -8617,11 +11367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-1.9586138613861377</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>-1.5864489743265549</v>
       </c>
       <c r="C21" t="e">
@@ -8632,7 +11382,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <f t="shared" si="2"/>
         <v>-7.0994968202807911</v>
       </c>
@@ -8688,7 +11438,7 @@
         <f t="shared" si="15"/>
         <v>2.0500626871017995</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="4">
         <f t="shared" si="16"/>
         <v>2.0500626871017995</v>
       </c>
@@ -9017,11 +11767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="22" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-1.8964356435643555</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>-1.4522066897618526</v>
       </c>
       <c r="C22" t="e">
@@ -9032,7 +11782,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <f t="shared" si="2"/>
         <v>-7.1998291225705611</v>
       </c>
@@ -9088,7 +11838,7 @@
         <f t="shared" si="15"/>
         <v>1.5106036071892099</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="4">
         <f t="shared" si="16"/>
         <v>1.5106036071892099</v>
       </c>
@@ -9417,11 +12167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="23" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-1.8342574257425732</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>-1.3147064127088699</v>
       </c>
       <c r="C23" t="e">
@@ -9432,7 +12182,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <f t="shared" si="2"/>
         <v>-7.2973245387003214</v>
       </c>
@@ -9488,7 +12238,7 @@
         <f t="shared" si="15"/>
         <v>1.0022318271647936</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="4">
         <f t="shared" si="16"/>
         <v>1.0022318271647936</v>
       </c>
@@ -9817,11 +12567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="24" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-1.772079207920791</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>-1.1744258908341036</v>
       </c>
       <c r="C24" t="e">
@@ -9832,7 +12582,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <f t="shared" si="2"/>
         <v>-7.3919446533977142</v>
       </c>
@@ -9888,7 +12638,7 @@
         <f t="shared" si="15"/>
         <v>0.55379007476150355</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="4">
         <f t="shared" si="16"/>
         <v>0.55379007476150355</v>
       </c>
@@ -10217,11 +12967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-1.7099009900990088</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>-1.0318513933723454</v>
       </c>
       <c r="C25" t="e">
@@ -10232,7 +12982,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <f t="shared" si="2"/>
         <v>-7.48365218432044</v>
       </c>
@@ -10288,7 +13038,7 @@
         <f t="shared" si="15"/>
         <v>0.18881081419662743</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="4">
         <f t="shared" si="16"/>
         <v>0.18881081419662743</v>
       </c>
@@ -10617,11 +13367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="26" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-1.6477227722772265</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>-0.88747588577560155</v>
       </c>
       <c r="C26" t="e">
@@ -10632,7 +13382,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <f t="shared" si="2"/>
         <v>-7.5724109967462967</v>
       </c>
@@ -10688,7 +13438,7 @@
         <f t="shared" si="15"/>
         <v>-7.6160822382714585E-2</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="4">
         <f t="shared" si="16"/>
         <v>-7.6160822382714585E-2</v>
       </c>
@@ -11017,11 +13767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="27" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-1.5855445544554443</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>-0.74179718057885258</v>
       </c>
       <c r="C27" t="e">
@@ -11032,7 +13782,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <f t="shared" si="2"/>
         <v>-7.6581861178110318</v>
       </c>
@@ -11088,7 +13838,7 @@
         <f t="shared" si="15"/>
         <v>-0.23267224741348771</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="4">
         <f t="shared" si="16"/>
         <v>-0.23267224741348771</v>
       </c>
@@ -11417,11 +14167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="28" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-1.5233663366336621</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>-0.59531607157510547</v>
       </c>
       <c r="C28" t="e">
@@ -11432,7 +14182,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <f t="shared" si="2"/>
         <v>-7.7409437502883938</v>
       </c>
@@ -11488,7 +14238,7 @@
         <f t="shared" si="15"/>
         <v>-0.28080590908206915</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="4">
         <f t="shared" si="16"/>
         <v>-0.28080590908206915</v>
       </c>
@@ -11817,11 +14567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="29" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-1.4611881188118798</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>-0.44853445845472639</v>
       </c>
       <c r="C29" t="e">
@@ -11832,7 +14582,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <f t="shared" si="2"/>
         <v>-7.8206512859069637</v>
       </c>
@@ -11888,7 +14638,7 @@
         <f t="shared" si="15"/>
         <v>-0.22892500765204596</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="4">
         <f t="shared" si="16"/>
         <v>-0.22892500765204596</v>
       </c>
@@ -12217,11 +14967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="30" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-1.3990099009900976</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>-0.30195346909897602</v>
       </c>
       <c r="C30" t="e">
@@ -12232,7 +14982,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <f t="shared" si="2"/>
         <v>-7.8972773181985039</v>
       </c>
@@ -12288,7 +15038,7 @@
         <f t="shared" si="15"/>
         <v>-9.2748010394607963E-2</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="4">
         <f t="shared" si="16"/>
         <v>-9.2748010394607963E-2</v>
       </c>
@@ -12617,11 +15367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="31" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-1.3368316831683154</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>-0.15607158672487048</v>
       </c>
       <c r="C31" t="e">
@@ -12632,7 +15382,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <f t="shared" si="2"/>
         <v>-7.9707916548727811</v>
       </c>
@@ -12688,7 +15438,7 @@
         <f t="shared" si="15"/>
         <v>0.1061653763777005</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="4">
         <f t="shared" si="16"/>
         <v>0.1061653763777005</v>
       </c>
@@ -13017,11 +15767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="32" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>-1.2746534653465331</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>-1.1382789057938991E-2</v>
       </c>
       <c r="C32" t="e">
@@ -13032,7 +15782,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <f t="shared" si="2"/>
         <v>-8.0411653297139694</v>
       </c>
@@ -13088,7 +15838,7 @@
         <f t="shared" si="15"/>
         <v>0.34238447388989957</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="4">
         <f t="shared" si="16"/>
         <v>0.34238447388989957</v>
       </c>
@@ -13417,11 +16167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="33" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>-1.2124752475247509</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="5">
         <v>0.13162529333878825</v>
       </c>
       <c r="C33" t="e">
@@ -13432,7 +16182,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <f t="shared" si="2"/>
         <v>-8.1083706139939569</v>
       </c>
@@ -13488,7 +16238,7 @@
         <f t="shared" si="15"/>
         <v>0.58886366247787136</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="4">
         <f t="shared" si="16"/>
         <v>0.58886366247787136</v>
       </c>
@@ -13817,11 +16567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="34" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>-1.1502970297029687</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>0.27247319252694446</v>
       </c>
       <c r="C34" t="e">
@@ -13832,7 +16582,7 @@
         <f t="shared" ref="D34:D65" ca="1" si="99">0.309292964647455+0.0539745918671713*_xludf.Csc(13.0389755004484*(3.26841046476068+A34))</f>
         <v>#NAME?</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <f t="shared" ref="E34:E65" si="100">-8.75619817200264*COS(0.319248393145526*A34)</f>
         <v>-8.1723810273980568</v>
       </c>
@@ -13888,7 +16638,7 @@
         <f t="shared" ref="R34:R65" si="113">2.37150805608629*(-0.65976403950173+A34)*COS(2.52514501186248*A34+0.666277386163338*SIN(0.0845115756212067-A34)*(-1.38203739377665-0.227617423336666*(-1.72726095701193+SIN(A34))))*SIN(A34)*SIN(4.50963498980504+A34)</f>
         <v>0.81928993630923141</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="4">
         <f t="shared" ref="S34:S65" si="114">2.37150805608629*(-0.65976403950173+A34)*COS(2.52514501186248*A34+0.666277386163338*SIN(0.0845115756212067-A34)*(-1.38203739377665-0.227617423336666*(-1.72726095701193+SIN(A34))))*SIN(A34)*SIN(4.50963498980504+A34)</f>
         <v>0.81928993630923141</v>
       </c>
@@ -14217,11 +16967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="35" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>-1.0881188118811864</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>0.41069138549644335</v>
       </c>
       <c r="C35" t="e">
@@ -14232,7 +16982,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <f t="shared" si="100"/>
         <v>-8.2331713484588178</v>
       </c>
@@ -14288,7 +17038,7 @@
         <f t="shared" si="113"/>
         <v>1.0103200776579582</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="4">
         <f t="shared" si="114"/>
         <v>1.0103200776579582</v>
       </c>
@@ -14617,11 +17367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="36" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>-1.0259405940594042</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>0.5458220364905636</v>
       </c>
       <c r="C36" t="e">
@@ -14632,7 +17382,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <f t="shared" si="100"/>
         <v>-8.2907176244938139</v>
       </c>
@@ -14688,7 +17438,7 @@
         <f t="shared" si="113"/>
         <v>1.1435144879554071</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="4">
         <f t="shared" si="114"/>
         <v>1.1435144879554071</v>
       </c>
@@ -15017,11 +17767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="37" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>-0.96376237623762195</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>0.67742069268850946</v>
       </c>
       <c r="C37" t="e">
@@ -15032,7 +17782,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <f t="shared" si="100"/>
         <v>-8.3449971810435208</v>
       </c>
@@ -15088,7 +17838,7 @@
         <f t="shared" si="113"/>
         <v>1.2067996256216595</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="4">
         <f t="shared" si="114"/>
         <v>1.2067996256216595</v>
       </c>
@@ -15417,11 +18167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="38" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>-0.90158415841583972</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>0.80505792676315902</v>
       </c>
       <c r="C38" t="e">
@@ -15432,7 +18182,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <f t="shared" si="100"/>
         <v>-8.3959886308055278</v>
       </c>
@@ -15488,7 +18238,7 @@
         <f t="shared" si="113"/>
         <v>1.1953302367596459</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="4">
         <f t="shared" si="114"/>
         <v>1.1953302367596459</v>
       </c>
@@ -15817,11 +18567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="39" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>-0.83940594059405749</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <v>0.9283209200383794</v>
       </c>
       <c r="C39" t="e">
@@ -15832,7 +18582,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <f t="shared" si="100"/>
         <v>-8.4436718820615901</v>
       </c>
@@ -15888,7 +18638,7 @@
         <f t="shared" si="113"/>
         <v>1.1116735555465311</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="4">
         <f t="shared" si="114"/>
         <v>1.1116735555465311</v>
       </c>
@@ -16217,11 +18967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="40" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>-0.77722772277227525</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5">
         <v>1.0468149802011468</v>
       </c>
       <c r="C40" t="e">
@@ -16232,7 +18982,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <f t="shared" si="100"/>
         <v>-8.4880281465942069</v>
       </c>
@@ -16288,7 +19038,7 @@
         <f t="shared" si="113"/>
         <v>0.96529697928315517</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="4">
         <f t="shared" si="114"/>
         <v>0.96529697928315517</v>
       </c>
@@ -16617,11 +19367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="41" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>-0.71504950495049302</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <v>1.160164987777871</v>
       </c>
       <c r="C41" t="e">
@@ -16632,7 +19382,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <f t="shared" si="100"/>
         <v>-8.5290399470895668</v>
       </c>
@@ -16688,7 +19438,7 @@
         <f t="shared" si="113"/>
         <v>0.77140417644363668</v>
       </c>
-      <c r="S41">
+      <c r="S41" s="4">
         <f t="shared" si="114"/>
         <v>0.77140417644363668</v>
       </c>
@@ -17017,11 +19767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="42" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>-0.65287128712871079</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>1.2680167658607675</v>
       </c>
       <c r="C42" t="e">
@@ -17032,7 +19782,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <f t="shared" si="100"/>
         <v>-8.5666911240239862</v>
       </c>
@@ -17088,7 +19838,7 @@
         <f t="shared" si="113"/>
         <v>0.54922722920296907</v>
       </c>
-      <c r="S42">
+      <c r="S42" s="4">
         <f t="shared" si="114"/>
         <v>0.54922722920296907</v>
       </c>
@@ -17417,11 +20167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="43" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>-0.59069306930692855</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5">
         <v>1.3700383678678261</v>
       </c>
       <c r="C43" t="e">
@@ -17432,7 +20182,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <f t="shared" si="100"/>
         <v>-8.6009668420311041</v>
       </c>
@@ -17488,7 +20238,7 @@
         <f t="shared" si="113"/>
         <v>0.31993872905367715</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="4">
         <f t="shared" si="114"/>
         <v>0.31993872905367715</v>
       </c>
@@ -17817,11 +20567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="44" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>-0.52851485148514632</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>1.4659212784377056</v>
       </c>
       <c r="C44" t="e">
@@ -17832,7 +20582,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <f t="shared" si="100"/>
         <v>-8.6318535957473408</v>
       </c>
@@ -17888,7 +20638,7 @@
         <f t="shared" si="113"/>
         <v>0.10439191448520847</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="4">
         <f t="shared" si="114"/>
         <v>0.10439191448520847</v>
       </c>
@@ -18217,11 +20967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="45" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-0.46633663366336414</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
         <v>1.5553815228975192</v>
       </c>
       <c r="C45" t="e">
@@ -18232,7 +20982,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <f t="shared" si="100"/>
         <v>-8.6593392151332864</v>
       </c>
@@ -18288,7 +21038,7 @@
         <f t="shared" si="113"/>
         <v>-7.9076706295182805E-2</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="4">
         <f t="shared" si="114"/>
         <v>-7.9076706295182805E-2</v>
       </c>
@@ -18617,11 +21367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="46" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-0.40415841584158196</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>1.638160681095675</v>
       </c>
       <c r="C46" t="e">
@@ -18632,7 +21382,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <f t="shared" si="100"/>
         <v>-8.6834128702689668</v>
       </c>
@@ -18688,7 +21438,7 @@
         <f t="shared" si="113"/>
         <v>-0.21654413172016376</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="4">
         <f t="shared" si="114"/>
         <v>-0.21654413172016376</v>
       </c>
@@ -19017,11 +21767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="47" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-0.34198019801979979</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="5">
         <v>1.7140268017623113</v>
       </c>
       <c r="C47" t="e">
@@ -19032,7 +21782,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <f t="shared" si="100"/>
         <v>-8.7040650756210542</v>
       </c>
@@ -19088,7 +21838,7 @@
         <f t="shared" si="113"/>
         <v>-0.29988117870623182</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="4">
         <f t="shared" si="114"/>
         <v>-0.29988117870623182</v>
       </c>
@@ -19417,11 +22167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="48" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-0.27980198019801761</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
         <v>1.7827752139449997</v>
       </c>
       <c r="C48" t="e">
@@ -19432,7 +22182,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <f t="shared" si="100"/>
         <v>-8.7212876937803827</v>
       </c>
@@ -19488,7 +22238,7 @@
         <f t="shared" si="113"/>
         <v>-0.32744938933518136</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="4">
         <f t="shared" si="114"/>
         <v>-0.32744938933518136</v>
       </c>
@@ -19817,11 +22567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="49" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-0.21762376237623543</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="5">
         <v>1.8442292324657923</v>
       </c>
       <c r="C49" t="e">
@@ -19832,7 +22582,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <f t="shared" si="100"/>
         <v>-8.7350739386682417</v>
       </c>
@@ -19888,7 +22638,7 @@
         <f t="shared" si="113"/>
         <v>-0.30402065695344554</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="4">
         <f t="shared" si="114"/>
         <v>-0.30402065695344554</v>
       </c>
@@ -20217,11 +22967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="50" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-0.15544554455445325</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="5">
         <v>1.8982407547557982</v>
       </c>
       <c r="C50" t="e">
@@ -20232,7 +22982,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <f t="shared" si="100"/>
         <v>-8.7454183782102515</v>
       </c>
@@ -20288,7 +23038,7 @@
         <f t="shared" si="113"/>
         <v>-0.23991664070152288</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="4">
         <f t="shared" si="114"/>
         <v>-0.23991664070152288</v>
       </c>
@@ -20617,11 +23367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="51" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-9.3267326732671074E-2</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="5">
         <v>1.9446907468437433</v>
       </c>
       <c r="C51" t="e">
@@ -20632,7 +23382,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <f t="shared" si="100"/>
         <v>-8.7523169364767117</v>
       </c>
@@ -20688,7 +23438,7 @@
         <f t="shared" si="113"/>
         <v>-0.14946393639824981</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="4">
         <f t="shared" si="114"/>
         <v>-0.14946393639824981</v>
       </c>
@@ -21017,11 +23767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="52" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-3.1089108910888896E-2</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="5">
         <v>1.9834896167037348</v>
       </c>
       <c r="C52" t="e">
@@ -21032,7 +23782,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <f t="shared" si="100"/>
         <v>-8.7557668952886001</v>
       </c>
@@ -21088,7 +23838,7 @@
         <f t="shared" si="113"/>
         <v>-4.8955016700267279E-2</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="4">
         <f t="shared" si="114"/>
         <v>-4.8955016700267279E-2</v>
       </c>
@@ -21417,11 +24167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="53" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3.1089108910893282E-2</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="5">
         <v>2.014577473603079</v>
       </c>
       <c r="C53" t="e">
@@ -21432,7 +24182,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <f t="shared" si="100"/>
         <v>-8.7557668952886001</v>
       </c>
@@ -21488,7 +24238,7 @@
         <f t="shared" si="113"/>
         <v>4.5620006977257599E-2</v>
       </c>
-      <c r="S53">
+      <c r="S53" s="4">
         <f t="shared" si="114"/>
         <v>4.5620006977257599E-2</v>
       </c>
@@ -21817,11 +24567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="54" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9.326732673267546E-2</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="5">
         <v>2.0379242725318054</v>
       </c>
       <c r="C54" t="e">
@@ -21832,7 +24582,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <f t="shared" si="100"/>
         <v>-8.7523169364767117</v>
       </c>
@@ -21888,7 +24638,7 @@
         <f t="shared" si="113"/>
         <v>0.12076301706537546</v>
       </c>
-      <c r="S54">
+      <c r="S54" s="4">
         <f t="shared" si="114"/>
         <v>0.12076301706537546</v>
       </c>
@@ -22217,11 +24967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="55" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.15544554455445764</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="5">
         <v>2.0535298432398115</v>
       </c>
       <c r="C55" t="e">
@@ -22232,7 +24982,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <f t="shared" si="100"/>
         <v>-8.7454183782102515</v>
       </c>
@@ -22288,7 +25038,7 @@
         <f t="shared" si="113"/>
         <v>0.16727062878043628</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="4">
         <f t="shared" si="114"/>
         <v>0.16727062878043628</v>
       </c>
@@ -22617,11 +25367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="56" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.21762376237623982</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="5">
         <v>2.0614238038535686</v>
       </c>
       <c r="C56" t="e">
@@ -22632,7 +25382,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <f t="shared" si="100"/>
         <v>-8.7350739386682417</v>
       </c>
@@ -22688,7 +25438,7 @@
         <f t="shared" si="113"/>
         <v>0.18138760381565139</v>
       </c>
-      <c r="S56">
+      <c r="S56" s="4">
         <f t="shared" si="114"/>
         <v>0.18138760381565139</v>
       </c>
@@ -23017,11 +25767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="57" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.27980198019802199</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="5">
         <v>2.0616653594903673</v>
       </c>
       <c r="C57" t="e">
@@ -23032,7 +25782,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <f t="shared" si="100"/>
         <v>-8.7212876937803809</v>
       </c>
@@ -23088,7 +25838,7 @@
         <f t="shared" si="113"/>
         <v>0.16513738576147041</v>
       </c>
-      <c r="S57">
+      <c r="S57" s="4">
         <f t="shared" si="114"/>
         <v>0.16513738576147041</v>
       </c>
@@ -23417,11 +26167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="58" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.34198019801980417</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="5">
         <v>2.0543429867324403</v>
       </c>
       <c r="C58" t="e">
@@ -23432,7 +26182,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <f t="shared" si="100"/>
         <v>-8.7040650756210542</v>
       </c>
@@ -23488,7 +26238,7 @@
         <f t="shared" si="113"/>
         <v>0.12577684869056149</v>
       </c>
-      <c r="S58">
+      <c r="S58" s="4">
         <f t="shared" si="114"/>
         <v>0.12577684869056149</v>
       </c>
@@ -23817,11 +26567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="59" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.40415841584158635</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="5">
         <v>2.0395740052642273</v>
       </c>
       <c r="C59" t="e">
@@ -23832,7 +26582,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <f t="shared" si="100"/>
         <v>-8.6834128702689632</v>
       </c>
@@ -23888,7 +26638,7 @@
         <f t="shared" si="113"/>
         <v>7.4456731930803044E-2</v>
       </c>
-      <c r="S59">
+      <c r="S59" s="4">
         <f t="shared" si="114"/>
         <v>7.4456731930803044E-2</v>
       </c>
@@ -24217,11 +26967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="60" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.46633663366336853</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="5">
         <v>2.0175040384118641</v>
       </c>
       <c r="C60" t="e">
@@ -24232,7 +26982,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <f t="shared" si="100"/>
         <v>-8.6593392151332829</v>
       </c>
@@ -24288,7 +27038,7 @@
         <f t="shared" si="113"/>
         <v>2.4295292933569433E-2</v>
       </c>
-      <c r="S60">
+      <c r="S60" s="4">
         <f t="shared" si="114"/>
         <v>2.4295292933569433E-2</v>
       </c>
@@ -24617,11 +27367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="61" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.52851485148515076</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="5">
         <v>1.9883063647530039</v>
       </c>
       <c r="C61" t="e">
@@ -24632,7 +27382,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <f t="shared" si="100"/>
         <v>-8.631853595747339</v>
       </c>
@@ -24688,7 +27438,7 @@
         <f t="shared" si="113"/>
         <v>-1.1831697758519607E-2</v>
       </c>
-      <c r="S61">
+      <c r="S61" s="4">
         <f t="shared" si="114"/>
         <v>-1.1831697758519607E-2</v>
       </c>
@@ -25017,11 +27767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="62" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.59069306930693299</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="5">
         <v>1.9521811633856201</v>
       </c>
       <c r="C62" t="e">
@@ -25032,7 +27782,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <f t="shared" si="100"/>
         <v>-8.6009668420311023</v>
       </c>
@@ -25088,7 +27838,7 @@
         <f t="shared" si="113"/>
         <v>-2.3434206328794289E-2</v>
       </c>
-      <c r="S62">
+      <c r="S62" s="4">
         <f t="shared" si="114"/>
         <v>-2.3434206328794289E-2</v>
       </c>
@@ -25417,11 +28167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="63" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.65287128712871523</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="5">
         <v>1.9093546558549193</v>
       </c>
       <c r="C63" t="e">
@@ -25432,7 +28182,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <f t="shared" si="100"/>
         <v>-8.5666911240239827</v>
       </c>
@@ -25488,7 +28238,7 @@
         <f t="shared" si="113"/>
         <v>-4.1446988622710224E-3</v>
       </c>
-      <c r="S63">
+      <c r="S63" s="4">
         <f t="shared" si="114"/>
         <v>-4.1446988622710224E-3</v>
       </c>
@@ -25817,11 +28567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="64" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.71504950495049746</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="5">
         <v>1.8600781481362914</v>
       </c>
       <c r="C64" t="e">
@@ -25832,7 +28582,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <f t="shared" si="100"/>
         <v>-8.529039947089565</v>
       </c>
@@ -25888,7 +28638,7 @@
         <f t="shared" si="113"/>
         <v>4.7223535086593521E-2</v>
       </c>
-      <c r="S64">
+      <c r="S64" s="4">
         <f t="shared" si="114"/>
         <v>4.7223535086593521E-2</v>
       </c>
@@ -26217,11 +28967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="65" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.77722772277227969</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="5">
         <v>1.8046269764578122</v>
       </c>
       <c r="C65" t="e">
@@ -26232,7 +28982,7 @@
         <f t="shared" ca="1" si="99"/>
         <v>#NAME?</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <f t="shared" si="100"/>
         <v>-8.4880281465942051</v>
       </c>
@@ -26288,7 +29038,7 @@
         <f t="shared" si="113"/>
         <v>0.12645520955108236</v>
       </c>
-      <c r="S65">
+      <c r="S65" s="4">
         <f t="shared" si="114"/>
         <v>0.12645520955108236</v>
       </c>
@@ -26617,11 +29367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="66" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.83940594059406193</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="5">
         <v>1.7432993611167005</v>
       </c>
       <c r="C66" t="e">
@@ -26632,7 +29382,7 @@
         <f t="shared" ref="D66:D102" ca="1" si="197">0.309292964647455+0.0539745918671713*_xludf.Csc(13.0389755004484*(3.26841046476068+A66))</f>
         <v>#NAME?</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <f t="shared" ref="E66:E102" si="198">-8.75619817200264*COS(0.319248393145526*A66)</f>
         <v>-8.4436718820615866</v>
       </c>
@@ -26688,7 +29438,7 @@
         <f t="shared" ref="R66:R102" si="211">2.37150805608629*(-0.65976403950173+A66)*COS(2.52514501186248*A66+0.666277386163338*SIN(0.0845115756212067-A66)*(-1.38203739377665-0.227617423336666*(-1.72726095701193+SIN(A66))))*SIN(A66)*SIN(4.50963498980504+A66)</f>
         <v>0.22456930680413731</v>
       </c>
-      <c r="S66">
+      <c r="S66" s="4">
         <f t="shared" ref="S66:S102" si="212">2.37150805608629*(-0.65976403950173+A66)*COS(2.52514501186248*A66+0.666277386163338*SIN(0.0845115756212067-A66)*(-1.38203739377665-0.227617423336666*(-1.72726095701193+SIN(A66))))*SIN(A66)*SIN(4.50963498980504+A66)</f>
         <v>0.22456930680413731</v>
       </c>
@@ -27017,11 +29767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="67" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.90158415841584416</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="5">
         <v>1.6764151727988861</v>
       </c>
       <c r="C67" t="e">
@@ -27032,7 +29782,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <f t="shared" si="198"/>
         <v>-8.3959886308055225</v>
       </c>
@@ -27088,7 +29838,7 @@
         <f t="shared" si="211"/>
         <v>0.32919435724781937</v>
       </c>
-      <c r="S67">
+      <c r="S67" s="4">
         <f t="shared" si="212"/>
         <v>0.32919435724781937</v>
       </c>
@@ -27417,11 +30167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="68" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.96376237623762639</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="5">
         <v>1.6043146162480961</v>
       </c>
       <c r="C68" t="e">
@@ -27432,7 +30182,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <f t="shared" si="198"/>
         <v>-8.3449971810435173</v>
       </c>
@@ -27488,7 +30238,7 @@
         <f t="shared" si="211"/>
         <v>0.42644978086211</v>
       </c>
-      <c r="S68">
+      <c r="S68" s="4">
         <f t="shared" si="212"/>
         <v>0.42644978086211</v>
       </c>
@@ -27817,11 +30567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="69" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1.0259405940594086</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="5">
         <v>1.5273568364493071</v>
       </c>
       <c r="C69" t="e">
@@ -27832,7 +30582,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <f t="shared" si="198"/>
         <v>-8.2907176244938103</v>
       </c>
@@ -27888,7 +30638,7 @@
         <f t="shared" si="211"/>
         <v>0.5030291211763005</v>
       </c>
-      <c r="S69">
+      <c r="S69" s="4">
         <f t="shared" si="212"/>
         <v>0.5030291211763005</v>
       </c>
@@ -28217,11 +30967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="70" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1.0881188118811909</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="5">
         <v>1.445918452789823</v>
       </c>
       <c r="C70" t="e">
@@ -28232,7 +30982,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <f t="shared" si="198"/>
         <v>-8.2331713484588143</v>
       </c>
@@ -28288,7 +31038,7 @@
         <f t="shared" si="211"/>
         <v>0.54816330974519534</v>
       </c>
-      <c r="S70">
+      <c r="S70" s="4">
         <f t="shared" si="212"/>
         <v>0.54816330974519534</v>
       </c>
@@ -28617,11 +31367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="71" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1.1502970297029731</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="5">
         <v>1.3603920269384489</v>
       </c>
       <c r="C71" t="e">
@@ -28632,7 +31382,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <f t="shared" si="198"/>
         <v>-8.1723810273980515</v>
       </c>
@@ -28688,7 +31438,7 @@
         <f t="shared" si="211"/>
         <v>0.55517766537197466</v>
       </c>
-      <c r="S71">
+      <c r="S71" s="4">
         <f t="shared" si="212"/>
         <v>0.55517766537197466</v>
       </c>
@@ -29017,11 +31767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="72" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.2124752475247553</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="5">
         <v>1.2711844704381998</v>
       </c>
       <c r="C72" t="e">
@@ -29032,7 +31782,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <f t="shared" si="198"/>
         <v>-8.1083706139939515</v>
       </c>
@@ -29088,7 +31838,7 @@
         <f t="shared" si="211"/>
         <v>0.52243519576118702</v>
       </c>
-      <c r="S72">
+      <c r="S72" s="4">
         <f t="shared" si="212"/>
         <v>0.52243519576118702</v>
       </c>
@@ -29417,11 +32167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="73" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.2746534653465376</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="5">
         <v>1.178715398239691</v>
       </c>
       <c r="C73" t="e">
@@ -29432,7 +32182,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <f t="shared" si="198"/>
         <v>-8.041165329713964</v>
       </c>
@@ -29488,7 +32238,7 @@
         <f t="shared" si="211"/>
         <v>0.45356401121430978</v>
       </c>
-      <c r="S73">
+      <c r="S73" s="4">
         <f t="shared" si="212"/>
         <v>0.45356401121430978</v>
       </c>
@@ -29817,11 +32567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="74" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1.3368316831683198</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="5">
         <v>1.0834154346099412</v>
       </c>
       <c r="C74" t="e">
@@ -29832,7 +32582,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <f t="shared" si="198"/>
         <v>-7.9707916548727766</v>
       </c>
@@ -29888,7 +32638,7 @@
         <f t="shared" si="211"/>
         <v>0.35697833305119558</v>
       </c>
-      <c r="S74">
+      <c r="S74" s="4">
         <f t="shared" si="212"/>
         <v>0.35697833305119558</v>
       </c>
@@ -30217,11 +32967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="75" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1.399009900990102</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="5">
         <v>0.98572447803395802</v>
       </c>
       <c r="C75" t="e">
@@ -30232,7 +32982,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <f t="shared" si="198"/>
         <v>-7.8972773181984985</v>
       </c>
@@ -30288,7 +33038,7 @@
         <f t="shared" si="211"/>
         <v>0.24480182884288609</v>
       </c>
-      <c r="S75">
+      <c r="S75" s="4">
         <f t="shared" si="212"/>
         <v>0.24480182884288609</v>
       </c>
@@ -30617,11 +33367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="76" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1.4611881188118843</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="5">
         <v>0.88608993188347085</v>
       </c>
       <c r="C76" t="e">
@@ -30632,7 +33382,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <f t="shared" si="198"/>
         <v>-7.8206512859069583</v>
       </c>
@@ -30688,7 +33438,7 @@
         <f t="shared" si="211"/>
         <v>0.13137446006045433</v>
       </c>
-      <c r="S76">
+      <c r="S76" s="4">
         <f t="shared" si="212"/>
         <v>0.13137446006045433</v>
       </c>
@@ -31017,11 +33767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="77" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1.5233663366336665</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="5">
         <v>0.78496490775793015</v>
       </c>
       <c r="C77" t="e">
@@ -31032,7 +33782,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <f t="shared" si="198"/>
         <v>-7.7409437502883884</v>
       </c>
@@ -31088,7 +33838,7 @@
         <f t="shared" si="211"/>
         <v>3.156182222441313E-2</v>
       </c>
-      <c r="S77">
+      <c r="S77" s="4">
         <f t="shared" si="212"/>
         <v>3.156182222441313E-2</v>
       </c>
@@ -31417,11 +34167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="78" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1.5855445544554487</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="5">
         <v>0.68280640850688323</v>
       </c>
       <c r="C78" t="e">
@@ -31432,7 +34182,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <f t="shared" si="198"/>
         <v>-7.6581861178110255</v>
       </c>
@@ -31488,7 +34238,7 @@
         <f t="shared" si="211"/>
         <v>-4.0911823701399251E-2</v>
       </c>
-      <c r="S78">
+      <c r="S78" s="4">
         <f t="shared" si="212"/>
         <v>-4.0911823701399251E-2</v>
       </c>
@@ -31817,11 +34567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="79" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1.647722772277231</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="5">
         <v>0.58007349801968722</v>
       </c>
       <c r="C79" t="e">
@@ -31832,7 +34582,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <f t="shared" si="198"/>
         <v>-7.5724109967462905</v>
       </c>
@@ -31888,7 +34638,7 @@
         <f t="shared" si="211"/>
         <v>-7.4913937783631965E-2</v>
       </c>
-      <c r="S79">
+      <c r="S79" s="4">
         <f t="shared" si="212"/>
         <v>-7.4913937783631965E-2</v>
       </c>
@@ -32217,11 +34967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="80" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1.7099009900990132</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="5">
         <v>0.47722546491791124</v>
       </c>
       <c r="C80" t="e">
@@ -32232,7 +34982,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <f t="shared" si="198"/>
         <v>-7.4836521843204329</v>
       </c>
@@ -32288,7 +35038,7 @@
         <f t="shared" si="211"/>
         <v>-6.2994374057740998E-2</v>
       </c>
-      <c r="S80">
+      <c r="S80" s="4">
         <f t="shared" si="212"/>
         <v>-6.2994374057740998E-2</v>
       </c>
@@ -32617,11 +35367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="81" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1.7720792079207954</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="5">
         <v>0.37471998730754313</v>
       </c>
       <c r="C81" t="e">
@@ -32632,7 +35382,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <f t="shared" si="198"/>
         <v>-7.3919446533977071</v>
       </c>
@@ -32688,7 +35438,7 @@
         <f t="shared" si="211"/>
         <v>-2.0336399434575099E-3</v>
       </c>
-      <c r="S81">
+      <c r="S81" s="4">
         <f t="shared" si="212"/>
         <v>-2.0336399434575099E-3</v>
       </c>
@@ -33017,11 +35767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="82" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1.8342574257425777</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="5">
         <v>0.27301130574215571</v>
       </c>
       <c r="C82" t="e">
@@ -33032,7 +35782,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <f t="shared" si="198"/>
         <v>-7.2973245387003143</v>
       </c>
@@ -33088,7 +35838,7 @@
         <f t="shared" si="211"/>
         <v>0.10657317973256035</v>
       </c>
-      <c r="S82">
+      <c r="S82" s="4">
         <f t="shared" si="212"/>
         <v>0.10657317973256035</v>
       </c>
@@ -33417,11 +36167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="83" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1.8964356435643599</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="5">
         <v>0.17254841151453171</v>
       </c>
       <c r="C83" t="e">
@@ -33432,7 +36182,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <f t="shared" si="198"/>
         <v>-7.199829122570554</v>
       </c>
@@ -33488,7 +36238,7 @@
         <f t="shared" si="211"/>
         <v>0.25716589180417176</v>
       </c>
-      <c r="S83">
+      <c r="S83" s="4">
         <f t="shared" si="212"/>
         <v>0.25716589180417176</v>
       </c>
@@ -33817,11 +36567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="84" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1.9586138613861421</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="5">
         <v>7.3773257333030862E-2</v>
       </c>
       <c r="C84" t="e">
@@ -33832,7 +36582,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <f t="shared" si="198"/>
         <v>-7.0994968202807849</v>
       </c>
@@ -33888,7 +36638,7 @@
         <f t="shared" si="211"/>
         <v>0.44043148188045894</v>
       </c>
-      <c r="S84">
+      <c r="S84" s="4">
         <f t="shared" si="212"/>
         <v>0.44043148188045894</v>
       </c>
@@ -34217,11 +36967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="85" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2.0207920792079244</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="5">
         <v>-2.2881002649557503E-2</v>
       </c>
       <c r="C85" t="e">
@@ -34232,7 +36982,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <f t="shared" si="198"/>
         <v>-6.9963671648969896</v>
       </c>
@@ -34288,7 +37038,7 @@
         <f t="shared" si="211"/>
         <v>0.64428445819207847</v>
       </c>
-      <c r="S85">
+      <c r="S85" s="4">
         <f t="shared" si="212"/>
         <v>0.64428445819207847</v>
       </c>
@@ -34617,11 +37367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="86" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2.0829702970297066</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="5">
         <v>-0.11699173660245643</v>
       </c>
       <c r="C86" t="e">
@@ -34632,7 +37382,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="3">
         <f t="shared" si="198"/>
         <v>-6.8904807917019042</v>
       </c>
@@ -34688,7 +37438,7 @@
         <f t="shared" si="211"/>
         <v>0.85491127029322023</v>
       </c>
-      <c r="S86">
+      <c r="S86" s="4">
         <f t="shared" si="212"/>
         <v>0.85491127029322023</v>
       </c>
@@ -35017,11 +37767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="87" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2.1451485148514888</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="5">
         <v>-0.2081485158684695</v>
       </c>
       <c r="C87" t="e">
@@ -35032,7 +37782,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <f t="shared" si="198"/>
         <v>-6.7818794221838488</v>
       </c>
@@ -35088,7 +37838,7 @@
         <f t="shared" si="211"/>
         <v>1.0578781388988774</v>
       </c>
-      <c r="S87">
+      <c r="S87" s="4">
         <f t="shared" si="212"/>
         <v>1.0578781388988774</v>
       </c>
@@ -35417,11 +38167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="88" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2.2073267326732711</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="5">
         <v>-0.29595474635853714</v>
       </c>
       <c r="C88" t="e">
@@ -35432,7 +38182,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <f t="shared" si="198"/>
         <v>-6.6706058475975762</v>
       </c>
@@ -35488,7 +38238,7 @@
         <f t="shared" si="211"/>
         <v>1.2392139829652415</v>
       </c>
-      <c r="S88">
+      <c r="S88" s="4">
         <f t="shared" si="212"/>
         <v>1.2392139829652415</v>
       </c>
@@ -35817,11 +38567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="89" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2.2695049504950533</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="5">
         <v>-0.38002924414051165</v>
       </c>
       <c r="C89" t="e">
@@ -35832,7 +38582,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <f t="shared" si="198"/>
         <v>-6.5567039121035977</v>
       </c>
@@ -35888,7 +38638,7 @@
         <f t="shared" si="211"/>
         <v>1.3863977252158999</v>
       </c>
-      <c r="S89">
+      <c r="S89" s="4">
         <f t="shared" si="212"/>
         <v>1.3863977252158999</v>
       </c>
@@ -36217,11 +38967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="90" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2.3316831683168355</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="5">
         <v>-0.46000774909131437</v>
       </c>
       <c r="C90" t="e">
@@ -36232,7 +38982,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <f t="shared" si="198"/>
         <v>-6.4402184954926565</v>
       </c>
@@ -36288,7 +39038,7 @@
         <f t="shared" si="211"/>
         <v>1.4891986520323939</v>
       </c>
-      <c r="S90">
+      <c r="S90" s="4">
         <f t="shared" si="212"/>
         <v>1.4891986520323939</v>
       </c>
@@ -36617,11 +39367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="91" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2.3938613861386178</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="5">
         <v>-0.53554437072331973</v>
       </c>
       <c r="C91" t="e">
@@ -36632,7 +39382,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <f t="shared" si="198"/>
         <v>-6.3211954955021286</v>
       </c>
@@ -36688,7 +39438,7 @@
         <f t="shared" si="211"/>
         <v>1.5403369858498646</v>
       </c>
-      <c r="S91">
+      <c r="S91" s="4">
         <f t="shared" si="212"/>
         <v>1.5403369858498646</v>
       </c>
@@ -37017,11 +39767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="92" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2.4560396039604</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="5">
         <v>-0.60631296056028849</v>
       </c>
       <c r="C92" t="e">
@@ -37032,7 +39782,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <f t="shared" si="198"/>
         <v>-6.1996818097313389</v>
       </c>
@@ -37088,7 +39838,7 @@
         <f t="shared" si="211"/>
         <v>1.5359475928070156</v>
       </c>
-      <c r="S92">
+      <c r="S92" s="4">
         <f t="shared" si="212"/>
         <v>1.5359475928070156</v>
       </c>
@@ -37417,11 +40167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="93" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2.5182178217821822</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="5">
         <v>-0.67200840572441323</v>
       </c>
       <c r="C93" t="e">
@@ -37432,7 +40182,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <f t="shared" si="198"/>
         <v>-6.0757253171629069</v>
       </c>
@@ -37488,7 +40238,7 @@
         <f t="shared" si="211"/>
         <v>1.4758418940486602</v>
       </c>
-      <c r="S93">
+      <c r="S93" s="4">
         <f t="shared" si="212"/>
         <v>1.4758418940486602</v>
       </c>
@@ -37817,11 +40567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="94" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2.5803960396039645</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="5">
         <v>-0.73234783870296227</v>
       </c>
       <c r="C94" t="e">
@@ -37832,7 +40582,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <f t="shared" si="198"/>
         <v>-5.9493748592974036</v>
       </c>
@@ -37888,7 +40638,7 @@
         <f t="shared" si="211"/>
         <v>1.3635714554478446</v>
       </c>
-      <c r="S94">
+      <c r="S94" s="4">
         <f t="shared" si="212"/>
         <v>1.3635714554478446</v>
       </c>
@@ -38217,11 +40967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="95" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2.6425742574257467</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="5">
         <v>-0.78707175858939482</v>
       </c>
       <c r="C95" t="e">
@@ -38232,7 +40982,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <f t="shared" si="198"/>
         <v>-5.8206802209087636</v>
       </c>
@@ -38288,7 +41038,7 @@
         <f t="shared" si="211"/>
         <v>1.2063018718501084</v>
       </c>
-      <c r="S95">
+      <c r="S95" s="4">
         <f t="shared" si="212"/>
         <v>1.2063018718501084</v>
       </c>
@@ -38617,11 +41367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="96" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2.7047524752475289</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="5">
         <v>-0.83594505943842945</v>
       </c>
       <c r="C96" t="e">
@@ -38632,7 +41382,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="3">
         <f t="shared" si="198"/>
         <v>-5.6896921104280196</v>
       </c>
@@ -38688,7 +41438,7 @@
         <f t="shared" si="211"/>
         <v>1.0145083017095111</v>
       </c>
-      <c r="S96">
+      <c r="S96" s="4">
         <f t="shared" si="212"/>
         <v>1.0145083017095111</v>
       </c>
@@ -39017,11 +41767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="97" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2.7669306930693112</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="5">
         <v>-0.87875796173602727</v>
       </c>
       <c r="C97" t="e">
@@ -39032,7 +41782,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <f t="shared" si="198"/>
         <v>-5.5564621399631013</v>
       </c>
@@ -39088,7 +41838,7 @@
         <f t="shared" si="211"/>
         <v>0.8015054044309744</v>
       </c>
-      <c r="S97">
+      <c r="S97" s="4">
         <f t="shared" si="212"/>
         <v>0.8015054044309744</v>
       </c>
@@ -39417,11 +42167,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="98" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2.8291089108910934</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="5">
         <v>-0.91532684336222125</v>
       </c>
       <c r="C98" t="e">
@@ -39432,7 +42182,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <f t="shared" si="198"/>
         <v>-5.4210428049625641</v>
       </c>
@@ -39488,7 +42238,7 @@
         <f t="shared" si="211"/>
         <v>0.58282557078929065</v>
       </c>
-      <c r="S98">
+      <c r="S98" s="4">
         <f t="shared" si="212"/>
         <v>0.58282557078929065</v>
       </c>
@@ -39817,11 +42567,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="99" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2.8912871287128756</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="5">
         <v>-0.94549496681570078</v>
       </c>
       <c r="C99" t="e">
@@ -39832,7 +42582,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <f t="shared" si="198"/>
         <v>-5.2834874635312614</v>
       </c>
@@ -39888,7 +42638,7 @@
         <f t="shared" si="211"/>
         <v>0.37546119061409067</v>
       </c>
-      <c r="S99">
+      <c r="S99" s="4">
         <f t="shared" si="212"/>
         <v>0.37546119061409067</v>
       </c>
@@ -40217,11 +42967,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="100" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2.9534653465346579</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="5">
         <v>-0.96913309987255591</v>
       </c>
       <c r="C100" t="e">
@@ -40232,7 +42982,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <f t="shared" si="198"/>
         <v>-5.1438503154061213</v>
       </c>
@@ -40288,7 +43038,7 @@
         <f t="shared" si="211"/>
         <v>0.19699002573296434</v>
       </c>
-      <c r="S100">
+      <c r="S100" s="4">
         <f t="shared" si="212"/>
         <v>0.19699002573296434</v>
       </c>
@@ -40617,11 +43367,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="101" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3.0156435643564401</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="5">
         <v>-0.98614002726602035</v>
       </c>
       <c r="C101" t="e">
@@ -40632,7 +43382,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <f t="shared" si="198"/>
         <v>-5.0021863806002811</v>
       </c>
@@ -40688,7 +43438,7 @@
         <f t="shared" si="211"/>
         <v>6.4607998898759761E-2</v>
       </c>
-      <c r="S101">
+      <c r="S101" s="4">
         <f t="shared" si="212"/>
         <v>6.4607998898759761E-2</v>
       </c>
@@ -41017,11 +43767,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="102" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:102" ht="15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3.0778217821782223</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="5">
         <v>-0.99644295139782268</v>
       </c>
       <c r="C102" t="e">
@@ -41032,7 +43782,7 @@
         <f t="shared" ca="1" si="197"/>
         <v>#NAME?</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="3">
         <f t="shared" si="198"/>
         <v>-4.8585514777240419</v>
       </c>
@@ -41088,7 +43838,7 @@
         <f t="shared" si="211"/>
         <v>-5.8990498155299335E-3</v>
       </c>
-      <c r="S102">
+      <c r="S102" s="4">
         <f t="shared" si="212"/>
         <v>-5.8990498155299335E-3</v>
       </c>
@@ -41419,5 +44169,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>